--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Yearly Results of AION-TECH SOLUTIONS(in Rs. Cr.)</t>
   </si>
@@ -158,6 +158,81 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>39.41</t>
+  </si>
+  <si>
+    <t>50.15</t>
+  </si>
+  <si>
+    <t>48.75</t>
+  </si>
+  <si>
+    <t>57.26</t>
+  </si>
+  <si>
+    <t>46.28</t>
+  </si>
+  <si>
+    <t>34.90</t>
+  </si>
+  <si>
+    <t>41.04</t>
+  </si>
+  <si>
+    <t>60.14</t>
+  </si>
+  <si>
+    <t>34.82</t>
+  </si>
+  <si>
+    <t>23.19</t>
+  </si>
+  <si>
+    <t>23.17</t>
+  </si>
+  <si>
+    <t>24.29</t>
+  </si>
+  <si>
+    <t>28.76</t>
+  </si>
+  <si>
+    <t>26.18</t>
+  </si>
+  <si>
+    <t>29.07</t>
+  </si>
+  <si>
+    <t>23.75</t>
+  </si>
+  <si>
+    <t>21.51</t>
+  </si>
+  <si>
+    <t>25.09</t>
+  </si>
+  <si>
+    <t>34.11</t>
+  </si>
+  <si>
+    <t>35.19</t>
+  </si>
+  <si>
+    <t>42.19</t>
+  </si>
+  <si>
+    <t>54.91</t>
+  </si>
+  <si>
+    <t>74.86</t>
+  </si>
+  <si>
+    <t>79.01</t>
   </si>
 </sst>
 </file>
@@ -596,14 +671,14 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>25.28</v>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>39.91791666666666</v>
+        <v>39.92</v>
       </c>
       <c r="D2">
-        <v>18.82739130434783</v>
+        <v>18.83</v>
       </c>
       <c r="E2">
         <v>0.86</v>
@@ -612,13 +687,13 @@
         <v>20.19</v>
       </c>
       <c r="G2">
-        <v>2.106666666666667</v>
+        <v>2.11</v>
       </c>
       <c r="H2">
         <v>0.91</v>
       </c>
       <c r="I2">
-        <v>2.860833333333333</v>
+        <v>2.86</v>
       </c>
       <c r="J2">
         <v>1.09</v>
@@ -633,7 +708,7 @@
         <v>0.5</v>
       </c>
       <c r="N2">
-        <v>1.997083333333334</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>3.55</v>
@@ -645,36 +720,36 @@
         <v>16.16</v>
       </c>
       <c r="R2">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S2">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T2">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U2">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V2">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W2">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>39.41</v>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
       <c r="C3">
         <v>39.41</v>
       </c>
       <c r="D3">
-        <v>18.82739130434783</v>
+        <v>18.83</v>
       </c>
       <c r="E3">
         <v>1.59</v>
@@ -716,30 +791,30 @@
         <v>37.34</v>
       </c>
       <c r="R3">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S3">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T3">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U3">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V3">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W3">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>50.15</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4">
         <v>50.15</v>
@@ -787,30 +862,30 @@
         <v>28.05</v>
       </c>
       <c r="R4">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S4">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T4">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U4">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V4">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W4">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>48.75</v>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
       <c r="C5">
         <v>48.75</v>
@@ -858,16 +933,16 @@
         <v>3.75</v>
       </c>
       <c r="R5">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S5">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T5">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U5">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V5">
         <v>0.76</v>
@@ -880,8 +955,8 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>57.26</v>
+      <c r="B6" t="s">
+        <v>52</v>
       </c>
       <c r="C6">
         <v>57.26</v>
@@ -929,16 +1004,16 @@
         <v>7.53</v>
       </c>
       <c r="R6">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S6">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T6">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U6">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V6">
         <v>0.79</v>
@@ -951,8 +1026,8 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <v>46.28</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7">
         <v>46.28</v>
@@ -1000,16 +1075,16 @@
         <v>10.23</v>
       </c>
       <c r="R7">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S7">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T7">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U7">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V7">
         <v>0.92</v>
@@ -1022,8 +1097,8 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>34.9</v>
+      <c r="B8" t="s">
+        <v>54</v>
       </c>
       <c r="C8">
         <v>34.9</v>
@@ -1071,16 +1146,16 @@
         <v>11.27</v>
       </c>
       <c r="R8">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S8">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T8">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U8">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V8">
         <v>0.95</v>
@@ -1093,8 +1168,8 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
-        <v>41.04</v>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
       <c r="C9">
         <v>41.04</v>
@@ -1142,16 +1217,16 @@
         <v>21.13</v>
       </c>
       <c r="R9">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S9">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T9">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U9">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V9">
         <v>0.95</v>
@@ -1164,8 +1239,8 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
-        <v>60.14</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10">
         <v>60.14</v>
@@ -1213,16 +1288,16 @@
         <v>42.24</v>
       </c>
       <c r="R10">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S10">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T10">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U10">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V10">
         <v>1.52</v>
@@ -1235,8 +1310,8 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>34.82</v>
+      <c r="B11" t="s">
+        <v>57</v>
       </c>
       <c r="C11">
         <v>34.82</v>
@@ -1284,16 +1359,16 @@
         <v>47.86</v>
       </c>
       <c r="R11">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S11">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T11">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U11">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V11">
         <v>1.52</v>
@@ -1306,8 +1381,8 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>23.19</v>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
       <c r="C12">
         <v>23.19</v>
@@ -1355,16 +1430,16 @@
         <v>48.67</v>
       </c>
       <c r="R12">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="S12">
-        <v>0.2285714285714286</v>
+        <v>0.23</v>
       </c>
       <c r="T12">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="U12">
-        <v>0.2278571428571428</v>
+        <v>0.23</v>
       </c>
       <c r="V12">
         <v>1.52</v>
@@ -1377,8 +1452,8 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>23.17</v>
+      <c r="B13" t="s">
+        <v>59</v>
       </c>
       <c r="C13">
         <v>23.17</v>
@@ -1448,8 +1523,8 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>24.29</v>
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
       <c r="C14">
         <v>24.29</v>
@@ -1519,8 +1594,8 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>28.76</v>
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
       <c r="C15">
         <v>28.76</v>
@@ -1590,8 +1665,8 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>26.18</v>
+      <c r="B16" t="s">
+        <v>62</v>
       </c>
       <c r="C16">
         <v>26.18</v>
@@ -1661,8 +1736,8 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
-        <v>29.07</v>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
       <c r="C17">
         <v>29.07</v>
@@ -1732,8 +1807,8 @@
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
-        <v>23.75</v>
+      <c r="B18" t="s">
+        <v>64</v>
       </c>
       <c r="C18">
         <v>23.75</v>
@@ -1793,18 +1868,18 @@
         <v>-0.46</v>
       </c>
       <c r="V18">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W18">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
-        <v>21.51</v>
+      <c r="B19" t="s">
+        <v>65</v>
       </c>
       <c r="C19">
         <v>21.51</v>
@@ -1864,18 +1939,18 @@
         <v>-2.72</v>
       </c>
       <c r="V19">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W19">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20">
-        <v>25.09</v>
+      <c r="B20" t="s">
+        <v>66</v>
       </c>
       <c r="C20">
         <v>25.09</v>
@@ -1935,18 +2010,18 @@
         <v>1.29</v>
       </c>
       <c r="V20">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W20">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>34.11</v>
+      <c r="B21" t="s">
+        <v>67</v>
       </c>
       <c r="C21">
         <v>34.11</v>
@@ -2006,18 +2081,18 @@
         <v>0.88</v>
       </c>
       <c r="V21">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W21">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>35.19</v>
+      <c r="B22" t="s">
+        <v>68</v>
       </c>
       <c r="C22">
         <v>35.19</v>
@@ -2077,18 +2152,18 @@
         <v>0.58</v>
       </c>
       <c r="V22">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W22">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <v>42.19</v>
+      <c r="B23" t="s">
+        <v>69</v>
       </c>
       <c r="C23">
         <v>42.19</v>
@@ -2148,18 +2223,18 @@
         <v>0.76</v>
       </c>
       <c r="V23">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W23">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24">
-        <v>54.91</v>
+      <c r="B24" t="s">
+        <v>70</v>
       </c>
       <c r="C24">
         <v>54.91</v>
@@ -2219,18 +2294,18 @@
         <v>0.37</v>
       </c>
       <c r="V24">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W24">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
-        <v>74.86</v>
+      <c r="B25" t="s">
+        <v>71</v>
       </c>
       <c r="C25">
         <v>74.86</v>
@@ -2290,18 +2365,18 @@
         <v>0.77</v>
       </c>
       <c r="V25">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W25">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
-        <v>79.01000000000001</v>
+      <c r="B26" t="s">
+        <v>72</v>
       </c>
       <c r="C26">
         <v>79.01000000000001</v>
@@ -2361,10 +2436,10 @@
         <v>0.68</v>
       </c>
       <c r="V26">
-        <v>1.271538461538462</v>
+        <v>1.27</v>
       </c>
       <c r="W26">
-        <v>79.61076923076924</v>
+        <v>79.61</v>
       </c>
     </row>
   </sheetData>
